--- a/database/pasta_pdf/TabelaAtual.xlsx
+++ b/database/pasta_pdf/TabelaAtual.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb5bd7a50d11ebd7/Área de Trabalho/Programa PYQT6/pyqt6/database/pasta_pdf/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_091DE1E2EFDB8D33852D4CEF05AA313F79794B6F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A648BB80-4F18-4682-9695-10627BF716BF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="449">
   <si>
     <t>cnpj</t>
   </si>
@@ -130,19 +124,7 @@
     <t>responsavel_legal</t>
   </si>
   <si>
-    <t>Padrão Desc Material</t>
-  </si>
-  <si>
-    <t>Unnamed: 6</t>
-  </si>
-  <si>
-    <t>Classe Material</t>
-  </si>
-  <si>
-    <t>Unnamed: 4</t>
-  </si>
-  <si>
-    <t>municipio_normalizado</t>
+    <t>num_ata</t>
   </si>
   <si>
     <t>30.199.011/0001-03</t>
@@ -1566,206 +1548,14 @@
     <t>RAIRYS FERNANDES SOUSA</t>
   </si>
   <si>
-    <t>APARELHO AR CONDICIONADO</t>
-  </si>
-  <si>
-    <t>CHAPA ASSADEIRA/FRITADEIRA</t>
-  </si>
-  <si>
-    <t>FOGÃO INDUSTRIAL</t>
-  </si>
-  <si>
-    <t>FORNO INDUSTRIAL</t>
-  </si>
-  <si>
-    <t>CALDEIRÃO</t>
-  </si>
-  <si>
-    <t>EQUIPAMENTO MULTIUSO COZINHA</t>
-  </si>
-  <si>
-    <t>REFRIGERADOR ALIMENTOS</t>
-  </si>
-  <si>
-    <t>LIQUIDIFICADOR INDUSTRIAL</t>
-  </si>
-  <si>
-    <t>MULTIPROCESSADOR ALIMENTOS</t>
-  </si>
-  <si>
-    <t>PICADOR LEGUMES</t>
-  </si>
-  <si>
-    <t>REFRIGERADOR DUPLEX</t>
-  </si>
-  <si>
-    <t>FREEZER</t>
-  </si>
-  <si>
-    <t>FORNO MICROONDAS</t>
-  </si>
-  <si>
-    <t>MÁQUINA FABRICAR GELO</t>
-  </si>
-  <si>
-    <t>CORTADOR ELÉTRICO FRIOS</t>
-  </si>
-  <si>
-    <t>MOEDOR DE CARNE INDUSTRIAL</t>
-  </si>
-  <si>
-    <t>SERRA FITA</t>
-  </si>
-  <si>
-    <t>BALANÇA COMERCIAL</t>
-  </si>
-  <si>
-    <t>ARMÁRIO PANIFICAÇÃO</t>
-  </si>
-  <si>
-    <t>PALETEIRA</t>
-  </si>
-  <si>
-    <t>TERMÔMETRO</t>
-  </si>
-  <si>
-    <t>EMPILHADEIRA ELÉTRICA</t>
-  </si>
-  <si>
-    <t>CAFETEIRA ELÉTRICA</t>
-  </si>
-  <si>
-    <t>CARRO TRANSPORTE</t>
-  </si>
-  <si>
-    <t>CARRINHO DISTRIBUIÇÃO</t>
-  </si>
-  <si>
-    <t>REFRESQUEIRA</t>
-  </si>
-  <si>
-    <t>SANDUICHEIRA</t>
-  </si>
-  <si>
-    <t>LAVADORA ALTA PRESSÃO</t>
-  </si>
-  <si>
-    <t>LIQUIDIFICADOR</t>
-  </si>
-  <si>
-    <t>MÁQUINA LAVAR LOUÇAS</t>
-  </si>
-  <si>
-    <t>VENTILADOR</t>
-  </si>
-  <si>
-    <t>BALCÃO TÉRMICO</t>
-  </si>
-  <si>
-    <t>CARRINHO TRANSPORTE</t>
-  </si>
-  <si>
-    <t>TELEVISOR</t>
-  </si>
-  <si>
-    <t>EQUIPAMENTO DE AR CONDICIONADO</t>
-  </si>
-  <si>
-    <t>EQUIPAMENTOS PARA COZINHAR, ASSAR E SERVIR ALIMENTOS</t>
-  </si>
-  <si>
-    <t>FORNALHAS, FORNOS E ESTUFAS INDUSTRIAIS</t>
-  </si>
-  <si>
-    <t>UTENSÍLIOS E FERRAMENTAS MANUAIS DE COZINHA</t>
-  </si>
-  <si>
-    <t>EQUIPAMENTO PARA REFRIGERAÇÃO</t>
-  </si>
-  <si>
-    <t>EQUIPAMENTOS E APARELHOS DE COZINHA</t>
-  </si>
-  <si>
-    <t>MÁQUINAS E EQUIPAMENTOS PARA PRODUTOS ALIMENTÍCIOS</t>
-  </si>
-  <si>
-    <t>ESCALAS E BALANÇAS</t>
-  </si>
-  <si>
-    <t>EQUIPAMENTOS NÃO AUTOPROPULSIONADO PARA MOVIMENTAÇÃO  DE  MATERIAIS</t>
-  </si>
-  <si>
-    <t>INSTRUMENTOS PARA MEDIÇÃO E CONTROLE DE PRESSÃO,TEMPERATURA E UMIDADE</t>
-  </si>
-  <si>
-    <t>VEÍCULOS AUTOPROPULSIONADOS PARA ARMAZÉM</t>
-  </si>
-  <si>
-    <t>ITENS DIVERSOS</t>
-  </si>
-  <si>
-    <t>EQUIPAMENTOS DIVERSOS PARA SERVIÇOS PROFISSIONAIS E  COMERCIAIS</t>
-  </si>
-  <si>
-    <t>EQUIPAMENTOS DE LAVANDERIA E LAVAGEM A SECO</t>
-  </si>
-  <si>
-    <t>VENTILADORES, CIRCULADORES DE AR E VENTOINHAS</t>
-  </si>
-  <si>
-    <t>MOBILIÁRIOS DIVERSOS E ACESSÓRIOS</t>
-  </si>
-  <si>
-    <t>FONÓGRAFOS, RÁDIOS E TELEVISORES DE TIPO DOMÉSTICO</t>
-  </si>
-  <si>
-    <t>Goiânia</t>
-  </si>
-  <si>
-    <t>Contagem</t>
-  </si>
-  <si>
-    <t>Maceió</t>
-  </si>
-  <si>
-    <t>Brasília</t>
-  </si>
-  <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
-    <t>Joinville</t>
-  </si>
-  <si>
-    <t>Palhoça</t>
-  </si>
-  <si>
-    <t>Florestal</t>
-  </si>
-  <si>
-    <t>Barueri</t>
-  </si>
-  <si>
-    <t>Serra</t>
-  </si>
-  <si>
-    <t>Blumenau</t>
-  </si>
-  <si>
-    <t>Americana</t>
-  </si>
-  <si>
-    <t>Governador Newton Bello</t>
-  </si>
-  <si>
-    <t>Águas Lindas De Goiás</t>
+    <t>787000/2023-027/00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1828,21 +1618,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1880,7 +1662,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1914,7 +1696,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1949,10 +1730,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2125,19 +1905,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AK70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="AG45" sqref="AG45"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="33" max="33" width="48.1796875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2249,34 +2024,22 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:37">
+      <c r="A2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2285,10 +2048,10 @@
         <v>458218</v>
       </c>
       <c r="H2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J2">
         <v>24</v>
@@ -2297,10 +2060,10 @@
         <v>2791</v>
       </c>
       <c r="L2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M2">
-        <v>19.383733428878539</v>
+        <v>19.38373342887854</v>
       </c>
       <c r="N2">
         <v>66984</v>
@@ -2309,99 +2072,87 @@
         <v>54000</v>
       </c>
       <c r="P2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="R2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="T2" t="s">
+        <v>301</v>
+      </c>
+      <c r="U2" t="s">
+        <v>302</v>
+      </c>
+      <c r="V2" t="s">
+        <v>303</v>
+      </c>
+      <c r="W2" t="s">
+        <v>304</v>
+      </c>
+      <c r="X2" t="s">
         <v>305</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Y2" t="s">
         <v>306</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Z2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB2" t="s">
         <v>307</v>
-      </c>
-      <c r="W2" t="s">
-        <v>308</v>
-      </c>
-      <c r="X2" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>311</v>
       </c>
       <c r="AC2">
         <v>1</v>
       </c>
       <c r="AD2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AE2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AF2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AG2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AH2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AI2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AJ2" t="s">
-        <v>431</v>
-      </c>
-      <c r="AK2">
-        <v>13768</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>452</v>
-      </c>
-      <c r="AM2">
-        <v>4120</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>486</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>503</v>
+        <v>427</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -2410,10 +2161,10 @@
         <v>458218</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J3">
         <v>7</v>
@@ -2422,10 +2173,10 @@
         <v>2791</v>
       </c>
       <c r="L3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M3">
-        <v>19.383733428878539</v>
+        <v>19.38373342887854</v>
       </c>
       <c r="N3">
         <v>19537</v>
@@ -2434,99 +2185,87 @@
         <v>15750</v>
       </c>
       <c r="P3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="R3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="T3" t="s">
+        <v>301</v>
+      </c>
+      <c r="U3" t="s">
+        <v>302</v>
+      </c>
+      <c r="V3" t="s">
+        <v>303</v>
+      </c>
+      <c r="W3" t="s">
+        <v>304</v>
+      </c>
+      <c r="X3" t="s">
         <v>305</v>
       </c>
-      <c r="U3" t="s">
+      <c r="Y3" t="s">
         <v>306</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Z3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB3" t="s">
         <v>307</v>
-      </c>
-      <c r="W3" t="s">
-        <v>308</v>
-      </c>
-      <c r="X3" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>311</v>
       </c>
       <c r="AC3">
         <v>1</v>
       </c>
       <c r="AD3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AE3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AF3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AG3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AH3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AI3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AJ3" t="s">
-        <v>431</v>
-      </c>
-      <c r="AK3">
-        <v>13768</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>452</v>
-      </c>
-      <c r="AM3">
-        <v>4120</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>486</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>503</v>
+        <v>427</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -2535,10 +2274,10 @@
         <v>458191</v>
       </c>
       <c r="H4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J4">
         <v>51</v>
@@ -2547,10 +2286,10 @@
         <v>3195</v>
       </c>
       <c r="L4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M4">
-        <v>2.0000000000000022</v>
+        <v>2.000000000000002</v>
       </c>
       <c r="N4">
         <v>162945</v>
@@ -2559,99 +2298,87 @@
         <v>159686.1</v>
       </c>
       <c r="P4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="R4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="T4" t="s">
+        <v>301</v>
+      </c>
+      <c r="U4" t="s">
+        <v>302</v>
+      </c>
+      <c r="V4" t="s">
+        <v>303</v>
+      </c>
+      <c r="W4" t="s">
+        <v>304</v>
+      </c>
+      <c r="X4" t="s">
         <v>305</v>
       </c>
-      <c r="U4" t="s">
+      <c r="Y4" t="s">
         <v>306</v>
       </c>
-      <c r="V4" t="s">
+      <c r="Z4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB4" t="s">
         <v>307</v>
-      </c>
-      <c r="W4" t="s">
-        <v>308</v>
-      </c>
-      <c r="X4" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>311</v>
       </c>
       <c r="AC4">
         <v>1</v>
       </c>
       <c r="AD4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AE4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AF4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AG4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AH4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AI4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AJ4" t="s">
-        <v>432</v>
-      </c>
-      <c r="AK4">
-        <v>13768</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>452</v>
-      </c>
-      <c r="AM4">
-        <v>4120</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>486</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>504</v>
+        <v>428</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -2660,10 +2387,10 @@
         <v>458191</v>
       </c>
       <c r="H5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J5">
         <v>20</v>
@@ -2672,7 +2399,7 @@
         <v>3195</v>
       </c>
       <c r="L5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -2684,99 +2411,87 @@
         <v>63900</v>
       </c>
       <c r="P5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="R5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="T5" t="s">
+        <v>301</v>
+      </c>
+      <c r="U5" t="s">
+        <v>302</v>
+      </c>
+      <c r="V5" t="s">
+        <v>303</v>
+      </c>
+      <c r="W5" t="s">
+        <v>304</v>
+      </c>
+      <c r="X5" t="s">
         <v>305</v>
       </c>
-      <c r="U5" t="s">
+      <c r="Y5" t="s">
         <v>306</v>
       </c>
-      <c r="V5" t="s">
+      <c r="Z5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB5" t="s">
         <v>307</v>
-      </c>
-      <c r="W5" t="s">
-        <v>308</v>
-      </c>
-      <c r="X5" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>311</v>
       </c>
       <c r="AC5">
         <v>1</v>
       </c>
       <c r="AD5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AE5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AF5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AG5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AH5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AI5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AJ5" t="s">
-        <v>433</v>
-      </c>
-      <c r="AK5">
-        <v>13768</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>452</v>
-      </c>
-      <c r="AM5">
-        <v>4120</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>486</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>505</v>
+        <v>429</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2785,10 +2500,10 @@
         <v>603721</v>
       </c>
       <c r="H6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J6">
         <v>25</v>
@@ -2797,10 +2512,10 @@
         <v>7408</v>
       </c>
       <c r="L6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M6">
-        <v>2.0000000000000022</v>
+        <v>2.000000000000002</v>
       </c>
       <c r="N6">
         <v>185200</v>
@@ -2809,99 +2524,87 @@
         <v>181496</v>
       </c>
       <c r="P6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="R6" t="s">
+        <v>254</v>
+      </c>
+      <c r="S6" t="s">
         <v>258</v>
       </c>
-      <c r="S6" t="s">
-        <v>262</v>
-      </c>
       <c r="T6" t="s">
+        <v>301</v>
+      </c>
+      <c r="U6" t="s">
+        <v>302</v>
+      </c>
+      <c r="V6" t="s">
+        <v>303</v>
+      </c>
+      <c r="W6" t="s">
+        <v>304</v>
+      </c>
+      <c r="X6" t="s">
         <v>305</v>
       </c>
-      <c r="U6" t="s">
+      <c r="Y6" t="s">
         <v>306</v>
       </c>
-      <c r="V6" t="s">
+      <c r="Z6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB6" t="s">
         <v>307</v>
-      </c>
-      <c r="W6" t="s">
-        <v>308</v>
-      </c>
-      <c r="X6" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>311</v>
       </c>
       <c r="AC6">
         <v>1</v>
       </c>
       <c r="AD6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AE6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AF6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AG6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AH6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AI6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AJ6" t="s">
-        <v>432</v>
-      </c>
-      <c r="AK6">
-        <v>13768</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>452</v>
-      </c>
-      <c r="AM6">
-        <v>4120</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>486</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>504</v>
+        <v>428</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
         <v>62</v>
       </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -2910,10 +2613,10 @@
         <v>603721</v>
       </c>
       <c r="H7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J7">
         <v>8</v>
@@ -2922,99 +2625,87 @@
         <v>7408</v>
       </c>
       <c r="L7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M7">
-        <v>2.0000000000000022</v>
+        <v>2.000000000000002</v>
       </c>
       <c r="N7">
         <v>59264</v>
       </c>
       <c r="O7">
-        <v>58078.720000000001</v>
+        <v>58078.72</v>
       </c>
       <c r="P7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="R7" t="s">
+        <v>254</v>
+      </c>
+      <c r="S7" t="s">
         <v>258</v>
       </c>
-      <c r="S7" t="s">
-        <v>262</v>
-      </c>
       <c r="T7" t="s">
+        <v>301</v>
+      </c>
+      <c r="U7" t="s">
+        <v>302</v>
+      </c>
+      <c r="V7" t="s">
+        <v>303</v>
+      </c>
+      <c r="W7" t="s">
+        <v>304</v>
+      </c>
+      <c r="X7" t="s">
         <v>305</v>
       </c>
-      <c r="U7" t="s">
+      <c r="Y7" t="s">
         <v>306</v>
       </c>
-      <c r="V7" t="s">
+      <c r="Z7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB7" t="s">
         <v>307</v>
-      </c>
-      <c r="W7" t="s">
-        <v>308</v>
-      </c>
-      <c r="X7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>311</v>
       </c>
       <c r="AC7">
         <v>1</v>
       </c>
       <c r="AD7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AE7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AF7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AG7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AH7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AI7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AJ7" t="s">
-        <v>434</v>
-      </c>
-      <c r="AK7">
-        <v>13768</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>452</v>
-      </c>
-      <c r="AM7">
-        <v>4120</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>486</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>506</v>
+        <v>430</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37">
       <c r="E8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -3023,10 +2714,10 @@
         <v>470880</v>
       </c>
       <c r="H8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J8">
         <v>21</v>
@@ -3035,69 +2726,57 @@
         <v>15212</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="R8" t="s">
+        <v>255</v>
+      </c>
+      <c r="S8" t="s">
         <v>259</v>
       </c>
-      <c r="S8" t="s">
-        <v>263</v>
-      </c>
       <c r="T8" t="s">
+        <v>301</v>
+      </c>
+      <c r="U8" t="s">
+        <v>302</v>
+      </c>
+      <c r="V8" t="s">
+        <v>303</v>
+      </c>
+      <c r="W8" t="s">
+        <v>304</v>
+      </c>
+      <c r="X8" t="s">
         <v>305</v>
       </c>
-      <c r="U8" t="s">
+      <c r="Y8" t="s">
         <v>306</v>
       </c>
-      <c r="V8" t="s">
-        <v>307</v>
-      </c>
-      <c r="W8" t="s">
-        <v>308</v>
-      </c>
-      <c r="X8" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>310</v>
-      </c>
       <c r="Z8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AA8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
-      <c r="AK8">
-        <v>13768</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>452</v>
-      </c>
-      <c r="AM8">
-        <v>4120</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>486</v>
-      </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
         <v>62</v>
       </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -3106,10 +2785,10 @@
         <v>470880</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -3118,111 +2797,99 @@
         <v>15212</v>
       </c>
       <c r="L9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M9">
-        <v>21.702274520115701</v>
+        <v>21.7022745201157</v>
       </c>
       <c r="N9">
         <v>91272</v>
       </c>
       <c r="O9">
-        <v>71463.899999999994</v>
+        <v>71463.89999999999</v>
       </c>
       <c r="P9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q9" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="R9" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="T9" t="s">
+        <v>301</v>
+      </c>
+      <c r="U9" t="s">
+        <v>302</v>
+      </c>
+      <c r="V9" t="s">
+        <v>303</v>
+      </c>
+      <c r="W9" t="s">
+        <v>304</v>
+      </c>
+      <c r="X9" t="s">
         <v>305</v>
       </c>
-      <c r="U9" t="s">
+      <c r="Y9" t="s">
         <v>306</v>
       </c>
-      <c r="V9" t="s">
+      <c r="Z9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB9" t="s">
         <v>307</v>
-      </c>
-      <c r="W9" t="s">
-        <v>308</v>
-      </c>
-      <c r="X9" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>311</v>
       </c>
       <c r="AC9">
         <v>1</v>
       </c>
       <c r="AD9" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AE9" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AF9" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AG9" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AH9" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AI9" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AJ9" t="s">
-        <v>434</v>
-      </c>
-      <c r="AK9">
-        <v>13768</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>452</v>
-      </c>
-      <c r="AM9">
-        <v>4120</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>486</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>506</v>
+        <v>430</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -3231,10 +2898,10 @@
         <v>480929</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J10">
         <v>19</v>
@@ -3243,10 +2910,10 @@
         <v>15987</v>
       </c>
       <c r="L10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M10">
-        <v>38.700193907549888</v>
+        <v>38.70019390754989</v>
       </c>
       <c r="N10">
         <v>303753</v>
@@ -3255,99 +2922,87 @@
         <v>186200</v>
       </c>
       <c r="P10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="R10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S10" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="T10" t="s">
+        <v>301</v>
+      </c>
+      <c r="U10" t="s">
+        <v>302</v>
+      </c>
+      <c r="V10" t="s">
+        <v>303</v>
+      </c>
+      <c r="W10" t="s">
+        <v>304</v>
+      </c>
+      <c r="X10" t="s">
         <v>305</v>
       </c>
-      <c r="U10" t="s">
+      <c r="Y10" t="s">
         <v>306</v>
       </c>
-      <c r="V10" t="s">
+      <c r="Z10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB10" t="s">
         <v>307</v>
-      </c>
-      <c r="W10" t="s">
-        <v>308</v>
-      </c>
-      <c r="X10" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>311</v>
       </c>
       <c r="AC10">
         <v>1</v>
       </c>
       <c r="AD10" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AE10" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AF10" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AG10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AH10" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AI10" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AJ10" t="s">
-        <v>432</v>
-      </c>
-      <c r="AK10">
-        <v>13768</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>452</v>
-      </c>
-      <c r="AM10">
-        <v>4120</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>486</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>504</v>
+        <v>428</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -3356,10 +3011,10 @@
         <v>480929</v>
       </c>
       <c r="H11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -3368,10 +3023,10 @@
         <v>15987</v>
       </c>
       <c r="L11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M11">
-        <v>32.445111653218241</v>
+        <v>32.44511165321824</v>
       </c>
       <c r="N11">
         <v>79935</v>
@@ -3380,99 +3035,87 @@
         <v>54000</v>
       </c>
       <c r="P11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="R11" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S11" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="T11" t="s">
+        <v>301</v>
+      </c>
+      <c r="U11" t="s">
+        <v>302</v>
+      </c>
+      <c r="V11" t="s">
+        <v>303</v>
+      </c>
+      <c r="W11" t="s">
+        <v>304</v>
+      </c>
+      <c r="X11" t="s">
         <v>305</v>
       </c>
-      <c r="U11" t="s">
+      <c r="Y11" t="s">
         <v>306</v>
       </c>
-      <c r="V11" t="s">
+      <c r="Z11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB11" t="s">
         <v>307</v>
-      </c>
-      <c r="W11" t="s">
-        <v>308</v>
-      </c>
-      <c r="X11" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>311</v>
       </c>
       <c r="AC11">
         <v>1</v>
       </c>
       <c r="AD11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AE11" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AF11" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AG11" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AH11" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AI11" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AJ11" t="s">
-        <v>435</v>
-      </c>
-      <c r="AK11">
-        <v>13768</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>452</v>
-      </c>
-      <c r="AM11">
-        <v>4120</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>486</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>507</v>
+        <v>431</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -3481,10 +3124,10 @@
         <v>442496</v>
       </c>
       <c r="H12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J12">
         <v>18</v>
@@ -3493,10 +3136,10 @@
         <v>3985</v>
       </c>
       <c r="L12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M12">
-        <v>53.461982434127989</v>
+        <v>53.46198243412799</v>
       </c>
       <c r="N12">
         <v>71730</v>
@@ -3505,99 +3148,87 @@
         <v>33381.72</v>
       </c>
       <c r="P12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q12" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="R12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="T12" t="s">
+        <v>301</v>
+      </c>
+      <c r="U12" t="s">
+        <v>302</v>
+      </c>
+      <c r="V12" t="s">
+        <v>303</v>
+      </c>
+      <c r="W12" t="s">
+        <v>304</v>
+      </c>
+      <c r="X12" t="s">
         <v>305</v>
       </c>
-      <c r="U12" t="s">
+      <c r="Y12" t="s">
         <v>306</v>
       </c>
-      <c r="V12" t="s">
+      <c r="Z12" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB12" t="s">
         <v>307</v>
-      </c>
-      <c r="W12" t="s">
-        <v>308</v>
-      </c>
-      <c r="X12" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>311</v>
       </c>
       <c r="AC12">
         <v>1</v>
       </c>
       <c r="AD12" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AE12" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AF12" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AG12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AH12" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AI12" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AJ12" t="s">
-        <v>434</v>
-      </c>
-      <c r="AK12">
-        <v>1056</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>453</v>
-      </c>
-      <c r="AM12">
-        <v>7310</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>487</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>506</v>
+        <v>430</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
         <v>62</v>
       </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -3606,10 +3237,10 @@
         <v>442496</v>
       </c>
       <c r="H13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -3618,111 +3249,99 @@
         <v>3985</v>
       </c>
       <c r="L13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M13">
-        <v>53.461982434127989</v>
+        <v>53.46198243412799</v>
       </c>
       <c r="N13">
         <v>19925</v>
       </c>
       <c r="O13">
-        <v>9272.7000000000007</v>
+        <v>9272.700000000001</v>
       </c>
       <c r="P13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="R13" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S13" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="T13" t="s">
+        <v>301</v>
+      </c>
+      <c r="U13" t="s">
+        <v>302</v>
+      </c>
+      <c r="V13" t="s">
+        <v>303</v>
+      </c>
+      <c r="W13" t="s">
+        <v>304</v>
+      </c>
+      <c r="X13" t="s">
         <v>305</v>
       </c>
-      <c r="U13" t="s">
+      <c r="Y13" t="s">
         <v>306</v>
       </c>
-      <c r="V13" t="s">
+      <c r="Z13" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB13" t="s">
         <v>307</v>
-      </c>
-      <c r="W13" t="s">
-        <v>308</v>
-      </c>
-      <c r="X13" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>311</v>
       </c>
       <c r="AC13">
         <v>1</v>
       </c>
       <c r="AD13" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AE13" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AF13" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AG13" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AH13" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AI13" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AJ13" t="s">
-        <v>434</v>
-      </c>
-      <c r="AK13">
-        <v>1056</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>453</v>
-      </c>
-      <c r="AM13">
-        <v>7310</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>487</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>506</v>
+        <v>430</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -3731,10 +3350,10 @@
         <v>255374</v>
       </c>
       <c r="H14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J14">
         <v>12</v>
@@ -3743,10 +3362,10 @@
         <v>4020</v>
       </c>
       <c r="L14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M14">
-        <v>37.349502487562177</v>
+        <v>37.34950248756218</v>
       </c>
       <c r="N14">
         <v>48240</v>
@@ -3755,85 +3374,73 @@
         <v>30222.6</v>
       </c>
       <c r="P14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="R14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S14" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="T14" t="s">
+        <v>301</v>
+      </c>
+      <c r="U14" t="s">
+        <v>302</v>
+      </c>
+      <c r="V14" t="s">
+        <v>303</v>
+      </c>
+      <c r="W14" t="s">
+        <v>304</v>
+      </c>
+      <c r="X14" t="s">
         <v>305</v>
       </c>
-      <c r="U14" t="s">
+      <c r="Y14" t="s">
         <v>306</v>
       </c>
-      <c r="V14" t="s">
+      <c r="Z14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB14" t="s">
         <v>307</v>
-      </c>
-      <c r="W14" t="s">
-        <v>308</v>
-      </c>
-      <c r="X14" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>311</v>
       </c>
       <c r="AC14">
         <v>1</v>
       </c>
       <c r="AD14" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AE14" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AF14" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AG14" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AH14" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AI14" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AJ14" t="s">
-        <v>436</v>
-      </c>
-      <c r="AK14">
-        <v>1070</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>454</v>
-      </c>
-      <c r="AM14">
-        <v>7310</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>487</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>508</v>
+        <v>432</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37">
       <c r="F15">
         <v>14</v>
       </c>
@@ -3841,28 +3448,16 @@
         <v>457010</v>
       </c>
       <c r="H15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="S15" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AC15">
         <v>0</v>
       </c>
-      <c r="AK15">
-        <v>7765</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>455</v>
-      </c>
-      <c r="AM15">
-        <v>4430</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>488</v>
-      </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37">
       <c r="F16">
         <v>15</v>
       </c>
@@ -3870,42 +3465,30 @@
         <v>457010</v>
       </c>
       <c r="H16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="S16" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AC16">
         <v>0</v>
       </c>
-      <c r="AK16">
-        <v>7765</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>455</v>
-      </c>
-      <c r="AM16">
-        <v>4430</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>488</v>
-      </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F17">
         <v>16</v>
@@ -3914,10 +3497,10 @@
         <v>457010</v>
       </c>
       <c r="H17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J17">
         <v>11</v>
@@ -3926,10 +3509,10 @@
         <v>43855</v>
       </c>
       <c r="L17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M17">
-        <v>49.834682476342493</v>
+        <v>49.83468247634249</v>
       </c>
       <c r="N17">
         <v>482405</v>
@@ -3938,99 +3521,87 @@
         <v>242000</v>
       </c>
       <c r="P17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q17" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="R17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="T17" t="s">
+        <v>301</v>
+      </c>
+      <c r="U17" t="s">
+        <v>302</v>
+      </c>
+      <c r="V17" t="s">
+        <v>303</v>
+      </c>
+      <c r="W17" t="s">
+        <v>304</v>
+      </c>
+      <c r="X17" t="s">
         <v>305</v>
       </c>
-      <c r="U17" t="s">
+      <c r="Y17" t="s">
         <v>306</v>
       </c>
-      <c r="V17" t="s">
+      <c r="Z17" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB17" t="s">
         <v>307</v>
-      </c>
-      <c r="W17" t="s">
-        <v>308</v>
-      </c>
-      <c r="X17" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>311</v>
       </c>
       <c r="AC17">
         <v>1</v>
       </c>
       <c r="AD17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AE17" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AF17" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AG17" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AH17" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AI17" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AJ17" t="s">
-        <v>437</v>
-      </c>
-      <c r="AK17">
-        <v>7765</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>455</v>
-      </c>
-      <c r="AM17">
-        <v>4430</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>488</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>509</v>
+        <v>433</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F18">
         <v>17</v>
@@ -4039,10 +3610,10 @@
         <v>457010</v>
       </c>
       <c r="H18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -4051,10 +3622,10 @@
         <v>43855</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M18">
-        <v>49.834682476342493</v>
+        <v>49.83468247634249</v>
       </c>
       <c r="N18">
         <v>131565</v>
@@ -4063,99 +3634,87 @@
         <v>66000</v>
       </c>
       <c r="P18" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="R18" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="T18" t="s">
+        <v>301</v>
+      </c>
+      <c r="U18" t="s">
+        <v>302</v>
+      </c>
+      <c r="V18" t="s">
+        <v>303</v>
+      </c>
+      <c r="W18" t="s">
+        <v>304</v>
+      </c>
+      <c r="X18" t="s">
         <v>305</v>
       </c>
-      <c r="U18" t="s">
+      <c r="Y18" t="s">
         <v>306</v>
       </c>
-      <c r="V18" t="s">
+      <c r="Z18" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB18" t="s">
         <v>307</v>
-      </c>
-      <c r="W18" t="s">
-        <v>308</v>
-      </c>
-      <c r="X18" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>311</v>
       </c>
       <c r="AC18">
         <v>1</v>
       </c>
       <c r="AD18" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AE18" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AF18" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AG18" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AH18" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AI18" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AJ18" t="s">
-        <v>437</v>
-      </c>
-      <c r="AK18">
-        <v>7765</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>455</v>
-      </c>
-      <c r="AM18">
-        <v>4430</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>488</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>509</v>
+        <v>433</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F19">
         <v>18</v>
@@ -4164,10 +3723,10 @@
         <v>402447</v>
       </c>
       <c r="H19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J19">
         <v>9</v>
@@ -4176,10 +3735,10 @@
         <v>26857</v>
       </c>
       <c r="L19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M19">
-        <v>45.265666306735667</v>
+        <v>45.26566630673567</v>
       </c>
       <c r="N19">
         <v>241713</v>
@@ -4188,99 +3747,87 @@
         <v>132300</v>
       </c>
       <c r="P19" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q19" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="R19" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S19" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="T19" t="s">
+        <v>301</v>
+      </c>
+      <c r="U19" t="s">
+        <v>302</v>
+      </c>
+      <c r="V19" t="s">
+        <v>303</v>
+      </c>
+      <c r="W19" t="s">
+        <v>304</v>
+      </c>
+      <c r="X19" t="s">
         <v>305</v>
       </c>
-      <c r="U19" t="s">
+      <c r="Y19" t="s">
         <v>306</v>
       </c>
-      <c r="V19" t="s">
+      <c r="Z19" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB19" t="s">
         <v>307</v>
-      </c>
-      <c r="W19" t="s">
-        <v>308</v>
-      </c>
-      <c r="X19" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>311</v>
       </c>
       <c r="AC19">
         <v>1</v>
       </c>
       <c r="AD19" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AE19" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AF19" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AG19" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AH19" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AI19" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AJ19" t="s">
-        <v>438</v>
-      </c>
-      <c r="AK19">
-        <v>1058</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>456</v>
-      </c>
-      <c r="AM19">
-        <v>7330</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>489</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>507</v>
+        <v>434</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F20">
         <v>19</v>
@@ -4289,10 +3836,10 @@
         <v>402447</v>
       </c>
       <c r="H20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -4301,10 +3848,10 @@
         <v>26857</v>
       </c>
       <c r="L20" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M20">
-        <v>45.265666306735667</v>
+        <v>45.26566630673567</v>
       </c>
       <c r="N20">
         <v>53714</v>
@@ -4313,85 +3860,73 @@
         <v>29400</v>
       </c>
       <c r="P20" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="R20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S20" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="T20" t="s">
+        <v>301</v>
+      </c>
+      <c r="U20" t="s">
+        <v>302</v>
+      </c>
+      <c r="V20" t="s">
+        <v>303</v>
+      </c>
+      <c r="W20" t="s">
+        <v>304</v>
+      </c>
+      <c r="X20" t="s">
         <v>305</v>
       </c>
-      <c r="U20" t="s">
+      <c r="Y20" t="s">
         <v>306</v>
       </c>
-      <c r="V20" t="s">
+      <c r="Z20" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB20" t="s">
         <v>307</v>
-      </c>
-      <c r="W20" t="s">
-        <v>308</v>
-      </c>
-      <c r="X20" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>311</v>
       </c>
       <c r="AC20">
         <v>1</v>
       </c>
       <c r="AD20" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AE20" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AF20" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AG20" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AH20" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AI20" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AJ20" t="s">
-        <v>438</v>
-      </c>
-      <c r="AK20">
-        <v>1058</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>456</v>
-      </c>
-      <c r="AM20">
-        <v>7330</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>489</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>507</v>
+        <v>434</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37">
       <c r="F21">
         <v>20</v>
       </c>
@@ -4399,28 +3934,16 @@
         <v>283613</v>
       </c>
       <c r="H21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AC21">
         <v>0</v>
       </c>
-      <c r="AK21">
-        <v>16422</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>457</v>
-      </c>
-      <c r="AM21">
-        <v>7310</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>487</v>
-      </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37">
       <c r="F22">
         <v>21</v>
       </c>
@@ -4428,28 +3951,16 @@
         <v>283613</v>
       </c>
       <c r="H22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="S22" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AC22">
         <v>0</v>
       </c>
-      <c r="AK22">
-        <v>16422</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>457</v>
-      </c>
-      <c r="AM22">
-        <v>7310</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>487</v>
-      </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37">
       <c r="F23">
         <v>22</v>
       </c>
@@ -4457,28 +3968,16 @@
         <v>483276</v>
       </c>
       <c r="H23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="S23" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AC23">
         <v>0</v>
       </c>
-      <c r="AK23">
-        <v>270</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>458</v>
-      </c>
-      <c r="AM23">
-        <v>4110</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>490</v>
-      </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37">
       <c r="F24">
         <v>23</v>
       </c>
@@ -4486,42 +3985,30 @@
         <v>483276</v>
       </c>
       <c r="H24" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="S24" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AC24">
         <v>0</v>
       </c>
-      <c r="AK24">
-        <v>270</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>458</v>
-      </c>
-      <c r="AM24">
-        <v>4110</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>490</v>
-      </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
         <v>62</v>
       </c>
-      <c r="C25" t="s">
-        <v>66</v>
-      </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F25">
         <v>24</v>
@@ -4530,10 +4017,10 @@
         <v>481373</v>
       </c>
       <c r="H25" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J25">
         <v>14</v>
@@ -4542,10 +4029,10 @@
         <v>2410</v>
       </c>
       <c r="L25" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M25">
-        <v>30.810373443983401</v>
+        <v>30.8103734439834</v>
       </c>
       <c r="N25">
         <v>33740</v>
@@ -4554,99 +4041,87 @@
         <v>23344.58</v>
       </c>
       <c r="P25" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q25" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="R25" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="T25" t="s">
+        <v>301</v>
+      </c>
+      <c r="U25" t="s">
+        <v>302</v>
+      </c>
+      <c r="V25" t="s">
+        <v>303</v>
+      </c>
+      <c r="W25" t="s">
+        <v>304</v>
+      </c>
+      <c r="X25" t="s">
         <v>305</v>
       </c>
-      <c r="U25" t="s">
+      <c r="Y25" t="s">
         <v>306</v>
       </c>
-      <c r="V25" t="s">
+      <c r="Z25" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB25" t="s">
         <v>307</v>
-      </c>
-      <c r="W25" t="s">
-        <v>308</v>
-      </c>
-      <c r="X25" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>311</v>
       </c>
       <c r="AC25">
         <v>1</v>
       </c>
       <c r="AD25" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AE25" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AF25" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AG25" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AH25" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AI25" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AJ25" t="s">
-        <v>434</v>
-      </c>
-      <c r="AK25">
-        <v>1093</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>459</v>
-      </c>
-      <c r="AM25">
-        <v>7320</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>491</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>506</v>
+        <v>430</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
         <v>62</v>
       </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F26">
         <v>25</v>
@@ -4655,10 +4130,10 @@
         <v>431283</v>
       </c>
       <c r="H26" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I26" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J26">
         <v>17</v>
@@ -4667,10 +4142,10 @@
         <v>1986</v>
       </c>
       <c r="L26" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M26">
-        <v>25.690835850956699</v>
+        <v>25.6908358509567</v>
       </c>
       <c r="N26">
         <v>33762</v>
@@ -4679,85 +4154,73 @@
         <v>25088.26</v>
       </c>
       <c r="P26" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q26" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="R26" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="T26" t="s">
+        <v>301</v>
+      </c>
+      <c r="U26" t="s">
+        <v>302</v>
+      </c>
+      <c r="V26" t="s">
+        <v>303</v>
+      </c>
+      <c r="W26" t="s">
+        <v>304</v>
+      </c>
+      <c r="X26" t="s">
         <v>305</v>
       </c>
-      <c r="U26" t="s">
+      <c r="Y26" t="s">
         <v>306</v>
       </c>
-      <c r="V26" t="s">
+      <c r="Z26" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB26" t="s">
         <v>307</v>
-      </c>
-      <c r="W26" t="s">
-        <v>308</v>
-      </c>
-      <c r="X26" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>311</v>
       </c>
       <c r="AC26">
         <v>1</v>
       </c>
       <c r="AD26" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AE26" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AF26" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AG26" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AH26" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AI26" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AJ26" t="s">
-        <v>434</v>
-      </c>
-      <c r="AK26">
-        <v>1093</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>459</v>
-      </c>
-      <c r="AM26">
-        <v>7320</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>491</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>506</v>
+        <v>430</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37">
       <c r="F27">
         <v>26</v>
       </c>
@@ -4765,30 +4228,18 @@
         <v>473222</v>
       </c>
       <c r="H27" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="S27" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AC27">
         <v>0</v>
       </c>
-      <c r="AK27">
-        <v>1106</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>460</v>
-      </c>
-      <c r="AM27">
-        <v>7320</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>491</v>
-      </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37">
       <c r="E28" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F28">
         <v>27</v>
@@ -4797,10 +4248,10 @@
         <v>465888</v>
       </c>
       <c r="H28" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J28">
         <v>26</v>
@@ -4809,69 +4260,57 @@
         <v>172</v>
       </c>
       <c r="L28" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="R28" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="S28" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="T28" t="s">
+        <v>301</v>
+      </c>
+      <c r="U28" t="s">
+        <v>302</v>
+      </c>
+      <c r="V28" t="s">
+        <v>303</v>
+      </c>
+      <c r="W28" t="s">
+        <v>304</v>
+      </c>
+      <c r="X28" t="s">
         <v>305</v>
       </c>
-      <c r="U28" t="s">
+      <c r="Y28" t="s">
         <v>306</v>
       </c>
-      <c r="V28" t="s">
-        <v>307</v>
-      </c>
-      <c r="W28" t="s">
-        <v>308</v>
-      </c>
-      <c r="X28" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>310</v>
-      </c>
       <c r="Z28" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AA28" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AC28">
         <v>0</v>
       </c>
-      <c r="AK28">
-        <v>5927</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>461</v>
-      </c>
-      <c r="AM28">
-        <v>7330</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>489</v>
-      </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F29">
         <v>28</v>
@@ -4880,10 +4319,10 @@
         <v>258164</v>
       </c>
       <c r="H29" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I29" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J29">
         <v>10</v>
@@ -4892,7 +4331,7 @@
         <v>6630</v>
       </c>
       <c r="L29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -4904,99 +4343,87 @@
         <v>66300</v>
       </c>
       <c r="P29" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q29" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="R29" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S29" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="T29" t="s">
+        <v>301</v>
+      </c>
+      <c r="U29" t="s">
+        <v>302</v>
+      </c>
+      <c r="V29" t="s">
+        <v>303</v>
+      </c>
+      <c r="W29" t="s">
+        <v>304</v>
+      </c>
+      <c r="X29" t="s">
         <v>305</v>
       </c>
-      <c r="U29" t="s">
+      <c r="Y29" t="s">
         <v>306</v>
       </c>
-      <c r="V29" t="s">
+      <c r="Z29" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB29" t="s">
         <v>307</v>
-      </c>
-      <c r="W29" t="s">
-        <v>308</v>
-      </c>
-      <c r="X29" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>311</v>
       </c>
       <c r="AC29">
         <v>1</v>
       </c>
       <c r="AD29" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AE29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AF29" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AG29" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AH29" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AI29" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AJ29" t="s">
-        <v>439</v>
-      </c>
-      <c r="AK29">
-        <v>270</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>458</v>
-      </c>
-      <c r="AM29">
-        <v>4110</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>490</v>
-      </c>
-      <c r="AO29" t="s">
-        <v>510</v>
+        <v>435</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F30">
         <v>29</v>
@@ -5005,10 +4432,10 @@
         <v>258164</v>
       </c>
       <c r="H30" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J30">
         <v>3</v>
@@ -5017,7 +4444,7 @@
         <v>6630</v>
       </c>
       <c r="L30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -5029,99 +4456,87 @@
         <v>19890</v>
       </c>
       <c r="P30" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q30" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="R30" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S30" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="T30" t="s">
+        <v>301</v>
+      </c>
+      <c r="U30" t="s">
+        <v>302</v>
+      </c>
+      <c r="V30" t="s">
+        <v>303</v>
+      </c>
+      <c r="W30" t="s">
+        <v>304</v>
+      </c>
+      <c r="X30" t="s">
         <v>305</v>
       </c>
-      <c r="U30" t="s">
+      <c r="Y30" t="s">
         <v>306</v>
       </c>
-      <c r="V30" t="s">
+      <c r="Z30" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB30" t="s">
         <v>307</v>
-      </c>
-      <c r="W30" t="s">
-        <v>308</v>
-      </c>
-      <c r="X30" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>311</v>
       </c>
       <c r="AC30">
         <v>1</v>
       </c>
       <c r="AD30" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AE30" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AF30" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AG30" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AH30" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AI30" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AJ30" t="s">
-        <v>439</v>
-      </c>
-      <c r="AK30">
-        <v>270</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>458</v>
-      </c>
-      <c r="AM30">
-        <v>4110</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>490</v>
-      </c>
-      <c r="AO30" t="s">
-        <v>510</v>
+        <v>435</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F31">
         <v>30</v>
@@ -5130,10 +4545,10 @@
         <v>486585</v>
       </c>
       <c r="H31" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I31" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J31">
         <v>20</v>
@@ -5142,10 +4557,10 @@
         <v>3167</v>
       </c>
       <c r="L31" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M31">
-        <v>9.0309441111461997</v>
+        <v>9.0309441111462</v>
       </c>
       <c r="N31">
         <v>63340</v>
@@ -5154,99 +4569,87 @@
         <v>57619.8</v>
       </c>
       <c r="P31" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q31" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="R31" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S31" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="T31" t="s">
+        <v>301</v>
+      </c>
+      <c r="U31" t="s">
+        <v>302</v>
+      </c>
+      <c r="V31" t="s">
+        <v>303</v>
+      </c>
+      <c r="W31" t="s">
+        <v>304</v>
+      </c>
+      <c r="X31" t="s">
         <v>305</v>
       </c>
-      <c r="U31" t="s">
+      <c r="Y31" t="s">
         <v>306</v>
       </c>
-      <c r="V31" t="s">
+      <c r="Z31" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB31" t="s">
         <v>307</v>
-      </c>
-      <c r="W31" t="s">
-        <v>308</v>
-      </c>
-      <c r="X31" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>311</v>
       </c>
       <c r="AC31">
         <v>1</v>
       </c>
       <c r="AD31" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AE31" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AF31" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AG31" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AH31" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AI31" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AJ31" t="s">
-        <v>440</v>
-      </c>
-      <c r="AK31">
-        <v>785</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>462</v>
-      </c>
-      <c r="AM31">
-        <v>4110</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>490</v>
-      </c>
-      <c r="AO31" t="s">
-        <v>511</v>
+        <v>436</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F32">
         <v>31</v>
@@ -5255,10 +4658,10 @@
         <v>445210</v>
       </c>
       <c r="H32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I32" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J32">
         <v>17</v>
@@ -5267,10 +4670,10 @@
         <v>3828</v>
       </c>
       <c r="L32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M32">
-        <v>17.659352142110759</v>
+        <v>17.65935214211076</v>
       </c>
       <c r="N32">
         <v>65076</v>
@@ -5279,99 +4682,87 @@
         <v>53584</v>
       </c>
       <c r="P32" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q32" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R32" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S32" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="T32" t="s">
+        <v>301</v>
+      </c>
+      <c r="U32" t="s">
+        <v>302</v>
+      </c>
+      <c r="V32" t="s">
+        <v>303</v>
+      </c>
+      <c r="W32" t="s">
+        <v>304</v>
+      </c>
+      <c r="X32" t="s">
         <v>305</v>
       </c>
-      <c r="U32" t="s">
+      <c r="Y32" t="s">
         <v>306</v>
       </c>
-      <c r="V32" t="s">
+      <c r="Z32" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB32" t="s">
         <v>307</v>
-      </c>
-      <c r="W32" t="s">
-        <v>308</v>
-      </c>
-      <c r="X32" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>311</v>
       </c>
       <c r="AC32">
         <v>1</v>
       </c>
       <c r="AD32" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AE32" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AF32" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AG32" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AH32" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AI32" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AJ32" t="s">
-        <v>441</v>
-      </c>
-      <c r="AK32">
-        <v>783</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>463</v>
-      </c>
-      <c r="AM32">
-        <v>4110</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>490</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>512</v>
+        <v>437</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F33">
         <v>32</v>
@@ -5380,10 +4771,10 @@
         <v>445210</v>
       </c>
       <c r="H33" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J33">
         <v>5</v>
@@ -5392,10 +4783,10 @@
         <v>3828</v>
       </c>
       <c r="L33" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M33">
-        <v>17.659352142110759</v>
+        <v>17.65935214211076</v>
       </c>
       <c r="N33">
         <v>19140</v>
@@ -5404,87 +4795,75 @@
         <v>15760</v>
       </c>
       <c r="P33" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q33" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R33" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S33" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="T33" t="s">
+        <v>301</v>
+      </c>
+      <c r="U33" t="s">
+        <v>302</v>
+      </c>
+      <c r="V33" t="s">
+        <v>303</v>
+      </c>
+      <c r="W33" t="s">
+        <v>304</v>
+      </c>
+      <c r="X33" t="s">
         <v>305</v>
       </c>
-      <c r="U33" t="s">
+      <c r="Y33" t="s">
         <v>306</v>
       </c>
-      <c r="V33" t="s">
+      <c r="Z33" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB33" t="s">
         <v>307</v>
-      </c>
-      <c r="W33" t="s">
-        <v>308</v>
-      </c>
-      <c r="X33" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>311</v>
       </c>
       <c r="AC33">
         <v>1</v>
       </c>
       <c r="AD33" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AE33" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AF33" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AG33" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AH33" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AI33" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AJ33" t="s">
-        <v>441</v>
-      </c>
-      <c r="AK33">
-        <v>783</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>463</v>
-      </c>
-      <c r="AM33">
-        <v>4110</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>490</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>512</v>
+        <v>437</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37">
       <c r="E34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F34">
         <v>33</v>
@@ -5493,10 +4872,10 @@
         <v>479243</v>
       </c>
       <c r="H34" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I34" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J34">
         <v>39</v>
@@ -5505,69 +4884,57 @@
         <v>852</v>
       </c>
       <c r="L34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="R34" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="S34" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="T34" t="s">
+        <v>301</v>
+      </c>
+      <c r="U34" t="s">
+        <v>302</v>
+      </c>
+      <c r="V34" t="s">
+        <v>303</v>
+      </c>
+      <c r="W34" t="s">
+        <v>304</v>
+      </c>
+      <c r="X34" t="s">
         <v>305</v>
       </c>
-      <c r="U34" t="s">
+      <c r="Y34" t="s">
         <v>306</v>
       </c>
-      <c r="V34" t="s">
-        <v>307</v>
-      </c>
-      <c r="W34" t="s">
-        <v>308</v>
-      </c>
-      <c r="X34" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>310</v>
-      </c>
       <c r="Z34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AA34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AC34">
         <v>0</v>
       </c>
-      <c r="AK34">
-        <v>1045</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>464</v>
-      </c>
-      <c r="AM34">
-        <v>7310</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>487</v>
-      </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F35">
         <v>34</v>
@@ -5576,10 +4943,10 @@
         <v>487318</v>
       </c>
       <c r="H35" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I35" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J35">
         <v>20</v>
@@ -5588,7 +4955,7 @@
         <v>14072</v>
       </c>
       <c r="L35" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M35">
         <v>25.88018760659466</v>
@@ -5600,99 +4967,87 @@
         <v>208602.8</v>
       </c>
       <c r="P35" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q35" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="R35" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S35" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="T35" t="s">
+        <v>301</v>
+      </c>
+      <c r="U35" t="s">
+        <v>302</v>
+      </c>
+      <c r="V35" t="s">
+        <v>303</v>
+      </c>
+      <c r="W35" t="s">
+        <v>304</v>
+      </c>
+      <c r="X35" t="s">
         <v>305</v>
       </c>
-      <c r="U35" t="s">
+      <c r="Y35" t="s">
         <v>306</v>
       </c>
-      <c r="V35" t="s">
+      <c r="Z35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB35" t="s">
         <v>307</v>
-      </c>
-      <c r="W35" t="s">
-        <v>308</v>
-      </c>
-      <c r="X35" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>311</v>
       </c>
       <c r="AC35">
         <v>1</v>
       </c>
       <c r="AD35" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AE35" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AF35" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AG35" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AH35" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AI35" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AJ35" t="s">
-        <v>442</v>
-      </c>
-      <c r="AK35">
-        <v>9197</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM35">
-        <v>4110</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>490</v>
-      </c>
-      <c r="AO35" t="s">
-        <v>513</v>
+        <v>438</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F36">
         <v>35</v>
@@ -5701,10 +5056,10 @@
         <v>487318</v>
       </c>
       <c r="H36" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I36" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J36">
         <v>6</v>
@@ -5713,111 +5068,99 @@
         <v>14072</v>
       </c>
       <c r="L36" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M36">
-        <v>29.452814098919841</v>
+        <v>29.45281409891984</v>
       </c>
       <c r="N36">
         <v>84432</v>
       </c>
       <c r="O36">
-        <v>59564.399999999987</v>
+        <v>59564.39999999999</v>
       </c>
       <c r="P36" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q36" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="R36" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S36" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="T36" t="s">
+        <v>301</v>
+      </c>
+      <c r="U36" t="s">
+        <v>302</v>
+      </c>
+      <c r="V36" t="s">
+        <v>303</v>
+      </c>
+      <c r="W36" t="s">
+        <v>304</v>
+      </c>
+      <c r="X36" t="s">
         <v>305</v>
       </c>
-      <c r="U36" t="s">
+      <c r="Y36" t="s">
         <v>306</v>
       </c>
-      <c r="V36" t="s">
+      <c r="Z36" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB36" t="s">
         <v>307</v>
-      </c>
-      <c r="W36" t="s">
-        <v>308</v>
-      </c>
-      <c r="X36" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>311</v>
       </c>
       <c r="AC36">
         <v>1</v>
       </c>
       <c r="AD36" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AE36" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AF36" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AG36" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AH36" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AI36" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AJ36" t="s">
-        <v>442</v>
-      </c>
-      <c r="AK36">
-        <v>9197</v>
-      </c>
-      <c r="AL36" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM36">
-        <v>4110</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>490</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>513</v>
+        <v>438</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -5826,10 +5169,10 @@
         <v>445256</v>
       </c>
       <c r="H37" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I37" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J37">
         <v>14</v>
@@ -5838,7 +5181,7 @@
         <v>5568</v>
       </c>
       <c r="L37" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M37">
         <v>22.5933908045977</v>
@@ -5850,99 +5193,87 @@
         <v>60340</v>
       </c>
       <c r="P37" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q37" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="R37" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S37" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="T37" t="s">
+        <v>301</v>
+      </c>
+      <c r="U37" t="s">
+        <v>302</v>
+      </c>
+      <c r="V37" t="s">
+        <v>303</v>
+      </c>
+      <c r="W37" t="s">
+        <v>304</v>
+      </c>
+      <c r="X37" t="s">
         <v>305</v>
       </c>
-      <c r="U37" t="s">
+      <c r="Y37" t="s">
         <v>306</v>
       </c>
-      <c r="V37" t="s">
+      <c r="Z37" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB37" t="s">
         <v>307</v>
-      </c>
-      <c r="W37" t="s">
-        <v>308</v>
-      </c>
-      <c r="X37" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>311</v>
       </c>
       <c r="AC37">
         <v>1</v>
       </c>
       <c r="AD37" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AE37" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AF37" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AG37" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AH37" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AI37" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AJ37" t="s">
-        <v>431</v>
-      </c>
-      <c r="AK37">
-        <v>1112</v>
-      </c>
-      <c r="AL37" t="s">
-        <v>466</v>
-      </c>
-      <c r="AM37">
-        <v>7320</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>491</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>503</v>
+        <v>427</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F38">
         <v>37</v>
@@ -5951,10 +5282,10 @@
         <v>253635</v>
       </c>
       <c r="H38" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I38" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J38">
         <v>12</v>
@@ -5963,7 +5294,7 @@
         <v>6311</v>
       </c>
       <c r="L38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -5975,85 +5306,73 @@
         <v>75732</v>
       </c>
       <c r="P38" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q38" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="R38" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S38" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="T38" t="s">
+        <v>301</v>
+      </c>
+      <c r="U38" t="s">
+        <v>302</v>
+      </c>
+      <c r="V38" t="s">
+        <v>303</v>
+      </c>
+      <c r="W38" t="s">
+        <v>304</v>
+      </c>
+      <c r="X38" t="s">
         <v>305</v>
       </c>
-      <c r="U38" t="s">
+      <c r="Y38" t="s">
         <v>306</v>
       </c>
-      <c r="V38" t="s">
+      <c r="Z38" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB38" t="s">
         <v>307</v>
-      </c>
-      <c r="W38" t="s">
-        <v>308</v>
-      </c>
-      <c r="X38" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>311</v>
       </c>
       <c r="AC38">
         <v>1</v>
       </c>
       <c r="AD38" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AE38" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AF38" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AG38" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AH38" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AI38" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AJ38" t="s">
-        <v>442</v>
-      </c>
-      <c r="AK38">
-        <v>9844</v>
-      </c>
-      <c r="AL38" t="s">
-        <v>467</v>
-      </c>
-      <c r="AM38">
-        <v>7320</v>
-      </c>
-      <c r="AN38" t="s">
-        <v>491</v>
-      </c>
-      <c r="AO38" t="s">
-        <v>513</v>
+        <v>438</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37">
       <c r="F39">
         <v>38</v>
       </c>
@@ -6061,28 +5380,16 @@
         <v>442377</v>
       </c>
       <c r="H39" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="S39" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AC39">
         <v>0</v>
       </c>
-      <c r="AK39">
-        <v>16653</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>468</v>
-      </c>
-      <c r="AM39">
-        <v>3605</v>
-      </c>
-      <c r="AN39" t="s">
-        <v>492</v>
-      </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37">
       <c r="F40">
         <v>39</v>
       </c>
@@ -6090,42 +5397,30 @@
         <v>442377</v>
       </c>
       <c r="H40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="S40" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AC40">
         <v>0</v>
       </c>
-      <c r="AK40">
-        <v>16653</v>
-      </c>
-      <c r="AL40" t="s">
-        <v>468</v>
-      </c>
-      <c r="AM40">
-        <v>3605</v>
-      </c>
-      <c r="AN40" t="s">
-        <v>492</v>
-      </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
         <v>62</v>
       </c>
-      <c r="C41" t="s">
-        <v>66</v>
-      </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E41" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F41">
         <v>40</v>
@@ -6134,10 +5429,10 @@
         <v>384273</v>
       </c>
       <c r="H41" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I41" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J41">
         <v>13</v>
@@ -6146,10 +5441,10 @@
         <v>3222</v>
       </c>
       <c r="L41" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M41">
-        <v>71.104903786468029</v>
+        <v>71.10490378646803</v>
       </c>
       <c r="N41">
         <v>41886</v>
@@ -6158,99 +5453,87 @@
         <v>12103</v>
       </c>
       <c r="P41" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q41" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="R41" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S41" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="T41" t="s">
+        <v>301</v>
+      </c>
+      <c r="U41" t="s">
+        <v>302</v>
+      </c>
+      <c r="V41" t="s">
+        <v>303</v>
+      </c>
+      <c r="W41" t="s">
+        <v>304</v>
+      </c>
+      <c r="X41" t="s">
         <v>305</v>
       </c>
-      <c r="U41" t="s">
+      <c r="Y41" t="s">
         <v>306</v>
       </c>
-      <c r="V41" t="s">
+      <c r="Z41" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB41" t="s">
         <v>307</v>
-      </c>
-      <c r="W41" t="s">
-        <v>308</v>
-      </c>
-      <c r="X41" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>311</v>
       </c>
       <c r="AC41">
         <v>1</v>
       </c>
       <c r="AD41" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AE41" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AF41" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AG41" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AH41" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AI41" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AJ41" t="s">
-        <v>443</v>
-      </c>
-      <c r="AK41">
-        <v>491</v>
-      </c>
-      <c r="AL41" t="s">
-        <v>469</v>
-      </c>
-      <c r="AM41">
-        <v>6670</v>
-      </c>
-      <c r="AN41" t="s">
-        <v>493</v>
-      </c>
-      <c r="AO41" t="s">
-        <v>514</v>
+        <v>439</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:37">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F42">
         <v>41</v>
@@ -6259,10 +5542,10 @@
         <v>330755</v>
       </c>
       <c r="H42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I42" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J42">
         <v>9</v>
@@ -6271,7 +5554,7 @@
         <v>11784</v>
       </c>
       <c r="L42" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M42">
         <v>15.13917175831636</v>
@@ -6283,99 +5566,87 @@
         <v>90000</v>
       </c>
       <c r="P42" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q42" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="R42" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S42" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="T42" t="s">
+        <v>301</v>
+      </c>
+      <c r="U42" t="s">
+        <v>302</v>
+      </c>
+      <c r="V42" t="s">
+        <v>303</v>
+      </c>
+      <c r="W42" t="s">
+        <v>304</v>
+      </c>
+      <c r="X42" t="s">
         <v>305</v>
       </c>
-      <c r="U42" t="s">
+      <c r="Y42" t="s">
         <v>306</v>
       </c>
-      <c r="V42" t="s">
+      <c r="Z42" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB42" t="s">
         <v>307</v>
-      </c>
-      <c r="W42" t="s">
-        <v>308</v>
-      </c>
-      <c r="X42" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>311</v>
       </c>
       <c r="AC42">
         <v>1</v>
       </c>
       <c r="AD42" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AE42" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AF42" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AG42" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AH42" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AI42" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AJ42" t="s">
-        <v>444</v>
-      </c>
-      <c r="AK42">
-        <v>15220</v>
-      </c>
-      <c r="AL42" t="s">
-        <v>470</v>
-      </c>
-      <c r="AM42">
-        <v>3605</v>
-      </c>
-      <c r="AN42" t="s">
-        <v>492</v>
-      </c>
-      <c r="AO42" t="s">
-        <v>506</v>
+        <v>440</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:37">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E43" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F43">
         <v>42</v>
@@ -6384,10 +5655,10 @@
         <v>330755</v>
       </c>
       <c r="H43" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -6396,7 +5667,7 @@
         <v>11784</v>
       </c>
       <c r="L43" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M43">
         <v>15.13917175831636</v>
@@ -6408,85 +5679,73 @@
         <v>30000</v>
       </c>
       <c r="P43" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q43" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="R43" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S43" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="T43" t="s">
+        <v>301</v>
+      </c>
+      <c r="U43" t="s">
+        <v>302</v>
+      </c>
+      <c r="V43" t="s">
+        <v>303</v>
+      </c>
+      <c r="W43" t="s">
+        <v>304</v>
+      </c>
+      <c r="X43" t="s">
         <v>305</v>
       </c>
-      <c r="U43" t="s">
+      <c r="Y43" t="s">
         <v>306</v>
       </c>
-      <c r="V43" t="s">
+      <c r="Z43" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB43" t="s">
         <v>307</v>
-      </c>
-      <c r="W43" t="s">
-        <v>308</v>
-      </c>
-      <c r="X43" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>311</v>
       </c>
       <c r="AC43">
         <v>1</v>
       </c>
       <c r="AD43" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AE43" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AF43" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AG43" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AH43" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AI43" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AJ43" t="s">
-        <v>444</v>
-      </c>
-      <c r="AK43">
-        <v>15220</v>
-      </c>
-      <c r="AL43" t="s">
-        <v>470</v>
-      </c>
-      <c r="AM43">
-        <v>3605</v>
-      </c>
-      <c r="AN43" t="s">
-        <v>492</v>
-      </c>
-      <c r="AO43" t="s">
-        <v>506</v>
+        <v>440</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37">
       <c r="F44">
         <v>43</v>
       </c>
@@ -6494,42 +5753,30 @@
         <v>486185</v>
       </c>
       <c r="H44" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="S44" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AC44">
         <v>0</v>
       </c>
-      <c r="AK44">
-        <v>10315</v>
-      </c>
-      <c r="AL44" t="s">
-        <v>471</v>
-      </c>
-      <c r="AM44">
-        <v>3920</v>
-      </c>
-      <c r="AN44" t="s">
-        <v>494</v>
-      </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:37">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F45">
         <v>44</v>
@@ -6538,10 +5785,10 @@
         <v>600067</v>
       </c>
       <c r="H45" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I45" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J45">
         <v>26</v>
@@ -6550,10 +5797,10 @@
         <v>191</v>
       </c>
       <c r="L45" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M45">
-        <v>51.256544502617807</v>
+        <v>51.25654450261781</v>
       </c>
       <c r="N45">
         <v>4966</v>
@@ -6562,85 +5809,73 @@
         <v>2420.6</v>
       </c>
       <c r="P45" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q45" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="R45" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S45" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="T45" t="s">
+        <v>301</v>
+      </c>
+      <c r="U45" t="s">
+        <v>302</v>
+      </c>
+      <c r="V45" t="s">
+        <v>303</v>
+      </c>
+      <c r="W45" t="s">
+        <v>304</v>
+      </c>
+      <c r="X45" t="s">
         <v>305</v>
       </c>
-      <c r="U45" t="s">
+      <c r="Y45" t="s">
         <v>306</v>
       </c>
-      <c r="V45" t="s">
+      <c r="Z45" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB45" t="s">
         <v>307</v>
-      </c>
-      <c r="W45" t="s">
-        <v>308</v>
-      </c>
-      <c r="X45" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>311</v>
       </c>
       <c r="AC45">
         <v>1</v>
       </c>
       <c r="AD45" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AE45" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AF45" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AG45" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AH45" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AI45" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AJ45" t="s">
-        <v>445</v>
-      </c>
-      <c r="AK45">
-        <v>12668</v>
-      </c>
-      <c r="AL45" t="s">
-        <v>472</v>
-      </c>
-      <c r="AM45">
-        <v>6685</v>
-      </c>
-      <c r="AN45" t="s">
-        <v>495</v>
-      </c>
-      <c r="AO45" t="s">
-        <v>515</v>
+        <v>441</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37">
       <c r="F46">
         <v>45</v>
       </c>
@@ -6648,28 +5883,16 @@
         <v>298065</v>
       </c>
       <c r="H46" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="S46" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AC46">
         <v>0</v>
       </c>
-      <c r="AK46">
-        <v>1049</v>
-      </c>
-      <c r="AL46" t="s">
-        <v>473</v>
-      </c>
-      <c r="AM46">
-        <v>3930</v>
-      </c>
-      <c r="AN46" t="s">
-        <v>496</v>
-      </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:37">
       <c r="F47">
         <v>46</v>
       </c>
@@ -6677,28 +5900,16 @@
         <v>423374</v>
       </c>
       <c r="H47" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="S47" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AC47">
         <v>0</v>
       </c>
-      <c r="AK47">
-        <v>1069</v>
-      </c>
-      <c r="AL47" t="s">
-        <v>474</v>
-      </c>
-      <c r="AM47">
-        <v>7310</v>
-      </c>
-      <c r="AN47" t="s">
-        <v>487</v>
-      </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:37">
       <c r="F48">
         <v>47</v>
       </c>
@@ -6706,28 +5917,16 @@
         <v>423374</v>
       </c>
       <c r="H48" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="S48" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AC48">
         <v>0</v>
       </c>
-      <c r="AK48">
-        <v>1069</v>
-      </c>
-      <c r="AL48" t="s">
-        <v>474</v>
-      </c>
-      <c r="AM48">
-        <v>7310</v>
-      </c>
-      <c r="AN48" t="s">
-        <v>487</v>
-      </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:37">
       <c r="F49">
         <v>48</v>
       </c>
@@ -6735,42 +5934,30 @@
         <v>430063</v>
       </c>
       <c r="H49" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="S49" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AC49">
         <v>0</v>
       </c>
-      <c r="AK49">
-        <v>1355</v>
-      </c>
-      <c r="AL49" t="s">
-        <v>475</v>
-      </c>
-      <c r="AM49">
-        <v>9999</v>
-      </c>
-      <c r="AN49" t="s">
-        <v>497</v>
-      </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:37">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E50" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F50">
         <v>49</v>
@@ -6779,10 +5966,10 @@
         <v>474330</v>
       </c>
       <c r="H50" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I50" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J50">
         <v>20</v>
@@ -6791,99 +5978,87 @@
         <v>2723</v>
       </c>
       <c r="L50" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M50">
-        <v>31.042232831435911</v>
+        <v>31.04223283143591</v>
       </c>
       <c r="N50">
         <v>54460</v>
       </c>
       <c r="O50">
-        <v>37554.400000000001</v>
+        <v>37554.4</v>
       </c>
       <c r="P50" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q50" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="R50" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S50" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="T50" t="s">
+        <v>301</v>
+      </c>
+      <c r="U50" t="s">
+        <v>302</v>
+      </c>
+      <c r="V50" t="s">
+        <v>303</v>
+      </c>
+      <c r="W50" t="s">
+        <v>304</v>
+      </c>
+      <c r="X50" t="s">
         <v>305</v>
       </c>
-      <c r="U50" t="s">
+      <c r="Y50" t="s">
         <v>306</v>
       </c>
-      <c r="V50" t="s">
+      <c r="Z50" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB50" t="s">
         <v>307</v>
-      </c>
-      <c r="W50" t="s">
-        <v>308</v>
-      </c>
-      <c r="X50" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>311</v>
       </c>
       <c r="AC50">
         <v>1</v>
       </c>
       <c r="AD50" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AE50" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AF50" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AG50" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AH50" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AI50" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AJ50" t="s">
-        <v>446</v>
-      </c>
-      <c r="AK50">
-        <v>4586</v>
-      </c>
-      <c r="AL50" t="s">
-        <v>476</v>
-      </c>
-      <c r="AM50">
-        <v>7310</v>
-      </c>
-      <c r="AN50" t="s">
-        <v>487</v>
-      </c>
-      <c r="AO50" t="s">
-        <v>512</v>
+        <v>442</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:37">
       <c r="E51" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F51">
         <v>50</v>
@@ -6892,10 +6067,10 @@
         <v>457010</v>
       </c>
       <c r="H51" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I51" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J51">
         <v>12</v>
@@ -6904,57 +6079,45 @@
         <v>11732</v>
       </c>
       <c r="L51" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="R51" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="S51" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="T51" t="s">
+        <v>301</v>
+      </c>
+      <c r="U51" t="s">
+        <v>302</v>
+      </c>
+      <c r="V51" t="s">
+        <v>303</v>
+      </c>
+      <c r="W51" t="s">
+        <v>304</v>
+      </c>
+      <c r="X51" t="s">
         <v>305</v>
       </c>
-      <c r="U51" t="s">
+      <c r="Y51" t="s">
         <v>306</v>
       </c>
-      <c r="V51" t="s">
-        <v>307</v>
-      </c>
-      <c r="W51" t="s">
-        <v>308</v>
-      </c>
-      <c r="X51" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>310</v>
-      </c>
       <c r="Z51" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AA51" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AC51">
         <v>0</v>
       </c>
-      <c r="AK51">
-        <v>7765</v>
-      </c>
-      <c r="AL51" t="s">
-        <v>455</v>
-      </c>
-      <c r="AM51">
-        <v>4430</v>
-      </c>
-      <c r="AN51" t="s">
-        <v>488</v>
-      </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:37">
       <c r="E52" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F52">
         <v>51</v>
@@ -6963,10 +6126,10 @@
         <v>457010</v>
       </c>
       <c r="H52" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I52" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -6975,69 +6138,57 @@
         <v>11732</v>
       </c>
       <c r="L52" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="R52" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="S52" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="T52" t="s">
+        <v>301</v>
+      </c>
+      <c r="U52" t="s">
+        <v>302</v>
+      </c>
+      <c r="V52" t="s">
+        <v>303</v>
+      </c>
+      <c r="W52" t="s">
+        <v>304</v>
+      </c>
+      <c r="X52" t="s">
         <v>305</v>
       </c>
-      <c r="U52" t="s">
+      <c r="Y52" t="s">
         <v>306</v>
       </c>
-      <c r="V52" t="s">
-        <v>307</v>
-      </c>
-      <c r="W52" t="s">
-        <v>308</v>
-      </c>
-      <c r="X52" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>310</v>
-      </c>
       <c r="Z52" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AA52" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AC52">
         <v>0</v>
       </c>
-      <c r="AK52">
-        <v>7765</v>
-      </c>
-      <c r="AL52" t="s">
-        <v>455</v>
-      </c>
-      <c r="AM52">
-        <v>4430</v>
-      </c>
-      <c r="AN52" t="s">
-        <v>488</v>
-      </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:37">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D53" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F53">
         <v>52</v>
@@ -7046,10 +6197,10 @@
         <v>451529</v>
       </c>
       <c r="H53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I53" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J53">
         <v>12</v>
@@ -7058,10 +6209,10 @@
         <v>8042</v>
       </c>
       <c r="L53" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M53">
-        <v>36.582939567271822</v>
+        <v>36.58293956727182</v>
       </c>
       <c r="N53">
         <v>96504</v>
@@ -7070,99 +6221,87 @@
         <v>61200</v>
       </c>
       <c r="P53" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q53" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="R53" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S53" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="T53" t="s">
+        <v>301</v>
+      </c>
+      <c r="U53" t="s">
+        <v>302</v>
+      </c>
+      <c r="V53" t="s">
+        <v>303</v>
+      </c>
+      <c r="W53" t="s">
+        <v>304</v>
+      </c>
+      <c r="X53" t="s">
         <v>305</v>
       </c>
-      <c r="U53" t="s">
+      <c r="Y53" t="s">
         <v>306</v>
       </c>
-      <c r="V53" t="s">
+      <c r="Z53" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB53" t="s">
         <v>307</v>
-      </c>
-      <c r="W53" t="s">
-        <v>308</v>
-      </c>
-      <c r="X53" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>311</v>
       </c>
       <c r="AC53">
         <v>1</v>
       </c>
       <c r="AD53" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AE53" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AF53" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AG53" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AH53" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AI53" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AJ53" t="s">
-        <v>447</v>
-      </c>
-      <c r="AK53">
-        <v>11535</v>
-      </c>
-      <c r="AL53" t="s">
-        <v>477</v>
-      </c>
-      <c r="AM53">
-        <v>7310</v>
-      </c>
-      <c r="AN53" t="s">
-        <v>487</v>
-      </c>
-      <c r="AO53" t="s">
-        <v>516</v>
+        <v>443</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:37">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E54" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F54">
         <v>53</v>
@@ -7171,10 +6310,10 @@
         <v>451529</v>
       </c>
       <c r="H54" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I54" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J54">
         <v>3</v>
@@ -7183,10 +6322,10 @@
         <v>8042</v>
       </c>
       <c r="L54" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M54">
-        <v>36.582939567271822</v>
+        <v>36.58293956727182</v>
       </c>
       <c r="N54">
         <v>24126</v>
@@ -7195,85 +6334,73 @@
         <v>15300</v>
       </c>
       <c r="P54" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q54" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="R54" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S54" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="T54" t="s">
+        <v>301</v>
+      </c>
+      <c r="U54" t="s">
+        <v>302</v>
+      </c>
+      <c r="V54" t="s">
+        <v>303</v>
+      </c>
+      <c r="W54" t="s">
+        <v>304</v>
+      </c>
+      <c r="X54" t="s">
         <v>305</v>
       </c>
-      <c r="U54" t="s">
+      <c r="Y54" t="s">
         <v>306</v>
       </c>
-      <c r="V54" t="s">
+      <c r="Z54" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB54" t="s">
         <v>307</v>
-      </c>
-      <c r="W54" t="s">
-        <v>308</v>
-      </c>
-      <c r="X54" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>311</v>
       </c>
       <c r="AC54">
         <v>1</v>
       </c>
       <c r="AD54" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AE54" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AF54" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AG54" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AH54" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AI54" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AJ54" t="s">
-        <v>447</v>
-      </c>
-      <c r="AK54">
-        <v>11535</v>
-      </c>
-      <c r="AL54" t="s">
-        <v>477</v>
-      </c>
-      <c r="AM54">
-        <v>7310</v>
-      </c>
-      <c r="AN54" t="s">
-        <v>487</v>
-      </c>
-      <c r="AO54" t="s">
-        <v>516</v>
+        <v>443</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:37">
       <c r="F55">
         <v>54</v>
       </c>
@@ -7281,28 +6408,16 @@
         <v>317762</v>
       </c>
       <c r="H55" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="S55" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AC55">
         <v>0</v>
       </c>
-      <c r="AK55">
-        <v>1097</v>
-      </c>
-      <c r="AL55" t="s">
-        <v>478</v>
-      </c>
-      <c r="AM55">
-        <v>7320</v>
-      </c>
-      <c r="AN55" t="s">
-        <v>491</v>
-      </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:37">
       <c r="F56">
         <v>55</v>
       </c>
@@ -7310,42 +6425,30 @@
         <v>449988</v>
       </c>
       <c r="H56" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="S56" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AC56">
         <v>0</v>
       </c>
-      <c r="AK56">
-        <v>14029</v>
-      </c>
-      <c r="AL56" t="s">
-        <v>479</v>
-      </c>
-      <c r="AM56">
-        <v>3590</v>
-      </c>
-      <c r="AN56" t="s">
-        <v>498</v>
-      </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:37">
       <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
         <v>58</v>
       </c>
-      <c r="B57" t="s">
-        <v>62</v>
-      </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E57" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F57">
         <v>56</v>
@@ -7354,10 +6457,10 @@
         <v>483292</v>
       </c>
       <c r="H57" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I57" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J57">
         <v>26</v>
@@ -7366,10 +6469,10 @@
         <v>1454</v>
       </c>
       <c r="L57" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M57">
-        <v>51.549518569463551</v>
+        <v>51.54951856946355</v>
       </c>
       <c r="N57">
         <v>37804</v>
@@ -7378,99 +6481,87 @@
         <v>18316.22</v>
       </c>
       <c r="P57" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q57" t="s">
+        <v>250</v>
+      </c>
+      <c r="R57" t="s">
         <v>254</v>
       </c>
-      <c r="R57" t="s">
-        <v>258</v>
-      </c>
       <c r="S57" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="T57" t="s">
+        <v>301</v>
+      </c>
+      <c r="U57" t="s">
+        <v>302</v>
+      </c>
+      <c r="V57" t="s">
+        <v>303</v>
+      </c>
+      <c r="W57" t="s">
+        <v>304</v>
+      </c>
+      <c r="X57" t="s">
         <v>305</v>
       </c>
-      <c r="U57" t="s">
+      <c r="Y57" t="s">
         <v>306</v>
       </c>
-      <c r="V57" t="s">
+      <c r="Z57" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB57" t="s">
         <v>307</v>
-      </c>
-      <c r="W57" t="s">
-        <v>308</v>
-      </c>
-      <c r="X57" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB57" t="s">
-        <v>311</v>
       </c>
       <c r="AC57">
         <v>1</v>
       </c>
       <c r="AD57" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AE57" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AF57" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AG57" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AH57" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AI57" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AJ57" t="s">
+        <v>444</v>
+      </c>
+      <c r="AK57" t="s">
         <v>448</v>
       </c>
-      <c r="AK57">
-        <v>1093</v>
-      </c>
-      <c r="AL57" t="s">
-        <v>459</v>
-      </c>
-      <c r="AM57">
-        <v>7320</v>
-      </c>
-      <c r="AN57" t="s">
-        <v>491</v>
-      </c>
-      <c r="AO57" t="s">
-        <v>512</v>
-      </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:37">
       <c r="A58" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D58" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E58" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F58">
         <v>57</v>
@@ -7479,10 +6570,10 @@
         <v>451184</v>
       </c>
       <c r="H58" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I58" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J58">
         <v>22</v>
@@ -7491,7 +6582,7 @@
         <v>254</v>
       </c>
       <c r="L58" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M58">
         <v>56.69291338582677</v>
@@ -7503,85 +6594,73 @@
         <v>2420</v>
       </c>
       <c r="P58" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q58" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="R58" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S58" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="T58" t="s">
+        <v>301</v>
+      </c>
+      <c r="U58" t="s">
+        <v>302</v>
+      </c>
+      <c r="V58" t="s">
+        <v>303</v>
+      </c>
+      <c r="W58" t="s">
+        <v>304</v>
+      </c>
+      <c r="X58" t="s">
         <v>305</v>
       </c>
-      <c r="U58" t="s">
+      <c r="Y58" t="s">
         <v>306</v>
       </c>
-      <c r="V58" t="s">
+      <c r="Z58" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB58" t="s">
         <v>307</v>
-      </c>
-      <c r="W58" t="s">
-        <v>308</v>
-      </c>
-      <c r="X58" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB58" t="s">
-        <v>311</v>
       </c>
       <c r="AC58">
         <v>1</v>
       </c>
       <c r="AD58" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AE58" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AF58" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AG58" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AH58" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AI58" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AJ58" t="s">
-        <v>431</v>
-      </c>
-      <c r="AK58">
-        <v>13581</v>
-      </c>
-      <c r="AL58" t="s">
-        <v>480</v>
-      </c>
-      <c r="AM58">
-        <v>7320</v>
-      </c>
-      <c r="AN58" t="s">
-        <v>491</v>
-      </c>
-      <c r="AO58" t="s">
-        <v>503</v>
+        <v>427</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:37">
       <c r="F59">
         <v>58</v>
       </c>
@@ -7589,28 +6668,16 @@
         <v>255706</v>
       </c>
       <c r="H59" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="S59" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AC59">
         <v>0</v>
       </c>
-      <c r="AK59">
-        <v>16409</v>
-      </c>
-      <c r="AL59" t="s">
-        <v>481</v>
-      </c>
-      <c r="AM59">
-        <v>3510</v>
-      </c>
-      <c r="AN59" t="s">
-        <v>499</v>
-      </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:37">
       <c r="F60">
         <v>59</v>
       </c>
@@ -7618,42 +6685,30 @@
         <v>255706</v>
       </c>
       <c r="H60" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="S60" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AC60">
         <v>0</v>
       </c>
-      <c r="AK60">
-        <v>16409</v>
-      </c>
-      <c r="AL60" t="s">
-        <v>481</v>
-      </c>
-      <c r="AM60">
-        <v>3510</v>
-      </c>
-      <c r="AN60" t="s">
-        <v>499</v>
-      </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:37">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D61" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E61" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F61">
         <v>60</v>
@@ -7662,10 +6717,10 @@
         <v>453490</v>
       </c>
       <c r="H61" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I61" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J61">
         <v>111</v>
@@ -7674,10 +6729,10 @@
         <v>222</v>
       </c>
       <c r="L61" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M61">
-        <v>3.1531531531531538</v>
+        <v>3.153153153153154</v>
       </c>
       <c r="N61">
         <v>24642</v>
@@ -7686,99 +6741,87 @@
         <v>23865</v>
       </c>
       <c r="P61" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q61" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="R61" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S61" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="T61" t="s">
+        <v>301</v>
+      </c>
+      <c r="U61" t="s">
+        <v>302</v>
+      </c>
+      <c r="V61" t="s">
+        <v>303</v>
+      </c>
+      <c r="W61" t="s">
+        <v>304</v>
+      </c>
+      <c r="X61" t="s">
         <v>305</v>
       </c>
-      <c r="U61" t="s">
+      <c r="Y61" t="s">
         <v>306</v>
       </c>
-      <c r="V61" t="s">
+      <c r="Z61" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB61" t="s">
         <v>307</v>
-      </c>
-      <c r="W61" t="s">
-        <v>308</v>
-      </c>
-      <c r="X61" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>311</v>
       </c>
       <c r="AC61">
         <v>1</v>
       </c>
       <c r="AD61" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AE61" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AF61" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AG61" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AH61" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AI61" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AJ61" t="s">
-        <v>449</v>
-      </c>
-      <c r="AK61">
-        <v>710</v>
-      </c>
-      <c r="AL61" t="s">
-        <v>482</v>
-      </c>
-      <c r="AM61">
-        <v>4140</v>
-      </c>
-      <c r="AN61" t="s">
-        <v>500</v>
-      </c>
-      <c r="AO61" t="s">
-        <v>506</v>
+        <v>445</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:37">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D62" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E62" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F62">
         <v>61</v>
@@ -7787,10 +6830,10 @@
         <v>260540</v>
       </c>
       <c r="H62" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I62" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J62">
         <v>12</v>
@@ -7799,111 +6842,99 @@
         <v>8124</v>
       </c>
       <c r="L62" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M62">
-        <v>58.949286065977361</v>
+        <v>58.94928606597736</v>
       </c>
       <c r="N62">
         <v>97488</v>
       </c>
       <c r="O62">
-        <v>40019.519999999997</v>
+        <v>40019.52</v>
       </c>
       <c r="P62" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q62" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R62" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S62" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="T62" t="s">
+        <v>301</v>
+      </c>
+      <c r="U62" t="s">
+        <v>302</v>
+      </c>
+      <c r="V62" t="s">
+        <v>303</v>
+      </c>
+      <c r="W62" t="s">
+        <v>304</v>
+      </c>
+      <c r="X62" t="s">
         <v>305</v>
       </c>
-      <c r="U62" t="s">
+      <c r="Y62" t="s">
         <v>306</v>
       </c>
-      <c r="V62" t="s">
+      <c r="Z62" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB62" t="s">
         <v>307</v>
-      </c>
-      <c r="W62" t="s">
-        <v>308</v>
-      </c>
-      <c r="X62" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>311</v>
       </c>
       <c r="AC62">
         <v>1</v>
       </c>
       <c r="AD62" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AE62" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AF62" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AG62" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AH62" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AI62" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AJ62" t="s">
-        <v>450</v>
-      </c>
-      <c r="AK62">
-        <v>3249</v>
-      </c>
-      <c r="AL62" t="s">
-        <v>483</v>
-      </c>
-      <c r="AM62">
-        <v>7195</v>
-      </c>
-      <c r="AN62" t="s">
-        <v>501</v>
-      </c>
-      <c r="AO62" t="s">
-        <v>506</v>
+        <v>446</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:37">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D63" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E63" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F63">
         <v>62</v>
@@ -7912,10 +6943,10 @@
         <v>260540</v>
       </c>
       <c r="H63" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I63" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J63">
         <v>4</v>
@@ -7924,10 +6955,10 @@
         <v>8124</v>
       </c>
       <c r="L63" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M63">
-        <v>59.975627769571638</v>
+        <v>59.97562776957164</v>
       </c>
       <c r="N63">
         <v>32496</v>
@@ -7936,85 +6967,73 @@
         <v>13006.32</v>
       </c>
       <c r="P63" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q63" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R63" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S63" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="T63" t="s">
+        <v>301</v>
+      </c>
+      <c r="U63" t="s">
+        <v>302</v>
+      </c>
+      <c r="V63" t="s">
+        <v>303</v>
+      </c>
+      <c r="W63" t="s">
+        <v>304</v>
+      </c>
+      <c r="X63" t="s">
         <v>305</v>
       </c>
-      <c r="U63" t="s">
+      <c r="Y63" t="s">
         <v>306</v>
       </c>
-      <c r="V63" t="s">
+      <c r="Z63" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB63" t="s">
         <v>307</v>
-      </c>
-      <c r="W63" t="s">
-        <v>308</v>
-      </c>
-      <c r="X63" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>311</v>
       </c>
       <c r="AC63">
         <v>1</v>
       </c>
       <c r="AD63" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AE63" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AF63" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AG63" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AH63" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AI63" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AJ63" t="s">
-        <v>450</v>
-      </c>
-      <c r="AK63">
-        <v>3249</v>
-      </c>
-      <c r="AL63" t="s">
-        <v>483</v>
-      </c>
-      <c r="AM63">
-        <v>7195</v>
-      </c>
-      <c r="AN63" t="s">
-        <v>501</v>
-      </c>
-      <c r="AO63" t="s">
-        <v>506</v>
+        <v>446</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:37">
       <c r="F64">
         <v>63</v>
       </c>
@@ -8022,28 +7041,16 @@
         <v>254906</v>
       </c>
       <c r="H64" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S64" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AC64">
         <v>0</v>
       </c>
-      <c r="AK64">
-        <v>3249</v>
-      </c>
-      <c r="AL64" t="s">
-        <v>483</v>
-      </c>
-      <c r="AM64">
-        <v>7195</v>
-      </c>
-      <c r="AN64" t="s">
-        <v>501</v>
-      </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:37">
       <c r="F65">
         <v>64</v>
       </c>
@@ -8051,42 +7058,30 @@
         <v>254906</v>
       </c>
       <c r="H65" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="S65" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AC65">
         <v>0</v>
       </c>
-      <c r="AK65">
-        <v>3249</v>
-      </c>
-      <c r="AL65" t="s">
-        <v>483</v>
-      </c>
-      <c r="AM65">
-        <v>7195</v>
-      </c>
-      <c r="AN65" t="s">
-        <v>501</v>
-      </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:37">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E66" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F66">
         <v>65</v>
@@ -8095,10 +7090,10 @@
         <v>483907</v>
       </c>
       <c r="H66" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I66" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J66">
         <v>19</v>
@@ -8107,10 +7102,10 @@
         <v>577</v>
       </c>
       <c r="L66" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M66">
-        <v>41.421143847487002</v>
+        <v>41.421143847487</v>
       </c>
       <c r="N66">
         <v>10963</v>
@@ -8119,99 +7114,87 @@
         <v>6422</v>
       </c>
       <c r="P66" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q66" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="R66" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S66" t="s">
+        <v>298</v>
+      </c>
+      <c r="T66" t="s">
+        <v>301</v>
+      </c>
+      <c r="U66" t="s">
         <v>302</v>
       </c>
-      <c r="T66" t="s">
+      <c r="V66" t="s">
+        <v>303</v>
+      </c>
+      <c r="W66" t="s">
+        <v>304</v>
+      </c>
+      <c r="X66" t="s">
         <v>305</v>
       </c>
-      <c r="U66" t="s">
+      <c r="Y66" t="s">
         <v>306</v>
       </c>
-      <c r="V66" t="s">
+      <c r="Z66" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB66" t="s">
         <v>307</v>
-      </c>
-      <c r="W66" t="s">
-        <v>308</v>
-      </c>
-      <c r="X66" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB66" t="s">
-        <v>311</v>
       </c>
       <c r="AC66">
         <v>1</v>
       </c>
       <c r="AD66" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AE66" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AF66" t="s">
+        <v>370</v>
+      </c>
+      <c r="AG66" t="s">
         <v>374</v>
       </c>
-      <c r="AG66" t="s">
-        <v>378</v>
-      </c>
       <c r="AH66" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AI66" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AJ66" t="s">
-        <v>451</v>
-      </c>
-      <c r="AK66">
-        <v>4584</v>
-      </c>
-      <c r="AL66" t="s">
-        <v>484</v>
-      </c>
-      <c r="AM66">
-        <v>3920</v>
-      </c>
-      <c r="AN66" t="s">
-        <v>494</v>
-      </c>
-      <c r="AO66" t="s">
-        <v>506</v>
+        <v>447</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:37">
       <c r="A67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" t="s">
         <v>58</v>
       </c>
-      <c r="B67" t="s">
-        <v>62</v>
-      </c>
       <c r="C67" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D67" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E67" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F67">
         <v>66</v>
@@ -8220,10 +7203,10 @@
         <v>480490</v>
       </c>
       <c r="H67" t="s">
+        <v>164</v>
+      </c>
+      <c r="I67" t="s">
         <v>168</v>
-      </c>
-      <c r="I67" t="s">
-        <v>172</v>
       </c>
       <c r="J67">
         <v>26</v>
@@ -8232,10 +7215,10 @@
         <v>2509</v>
       </c>
       <c r="L67" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M67">
-        <v>31.646074133120759</v>
+        <v>31.64607413312076</v>
       </c>
       <c r="N67">
         <v>65234</v>
@@ -8244,99 +7227,87 @@
         <v>44590</v>
       </c>
       <c r="P67" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q67" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="R67" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S67" t="s">
+        <v>299</v>
+      </c>
+      <c r="T67" t="s">
+        <v>301</v>
+      </c>
+      <c r="U67" t="s">
+        <v>302</v>
+      </c>
+      <c r="V67" t="s">
         <v>303</v>
       </c>
-      <c r="T67" t="s">
+      <c r="W67" t="s">
+        <v>304</v>
+      </c>
+      <c r="X67" t="s">
         <v>305</v>
       </c>
-      <c r="U67" t="s">
+      <c r="Y67" t="s">
         <v>306</v>
       </c>
-      <c r="V67" t="s">
+      <c r="Z67" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB67" t="s">
         <v>307</v>
-      </c>
-      <c r="W67" t="s">
-        <v>308</v>
-      </c>
-      <c r="X67" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB67" t="s">
-        <v>311</v>
       </c>
       <c r="AC67">
         <v>1</v>
       </c>
       <c r="AD67" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AE67" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AF67" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AG67" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AH67" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AI67" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AJ67" t="s">
+        <v>444</v>
+      </c>
+      <c r="AK67" t="s">
         <v>448</v>
       </c>
-      <c r="AK67">
-        <v>12609</v>
-      </c>
-      <c r="AL67" t="s">
-        <v>485</v>
-      </c>
-      <c r="AM67">
-        <v>7730</v>
-      </c>
-      <c r="AN67" t="s">
-        <v>502</v>
-      </c>
-      <c r="AO67" t="s">
-        <v>512</v>
-      </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:37">
       <c r="A68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" t="s">
         <v>58</v>
       </c>
-      <c r="B68" t="s">
-        <v>62</v>
-      </c>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D68" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E68" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F68">
         <v>67</v>
@@ -8345,10 +7316,10 @@
         <v>480490</v>
       </c>
       <c r="H68" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I68" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J68">
         <v>8</v>
@@ -8357,10 +7328,10 @@
         <v>2509</v>
       </c>
       <c r="L68" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M68">
-        <v>31.646074133120759</v>
+        <v>31.64607413312076</v>
       </c>
       <c r="N68">
         <v>20072</v>
@@ -8369,87 +7340,75 @@
         <v>13720</v>
       </c>
       <c r="P68" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q68" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="R68" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S68" t="s">
+        <v>299</v>
+      </c>
+      <c r="T68" t="s">
+        <v>301</v>
+      </c>
+      <c r="U68" t="s">
+        <v>302</v>
+      </c>
+      <c r="V68" t="s">
         <v>303</v>
       </c>
-      <c r="T68" t="s">
+      <c r="W68" t="s">
+        <v>304</v>
+      </c>
+      <c r="X68" t="s">
         <v>305</v>
       </c>
-      <c r="U68" t="s">
+      <c r="Y68" t="s">
         <v>306</v>
       </c>
-      <c r="V68" t="s">
+      <c r="Z68" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB68" t="s">
         <v>307</v>
-      </c>
-      <c r="W68" t="s">
-        <v>308</v>
-      </c>
-      <c r="X68" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB68" t="s">
-        <v>311</v>
       </c>
       <c r="AC68">
         <v>1</v>
       </c>
       <c r="AD68" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AE68" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AF68" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AG68" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AH68" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AI68" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AJ68" t="s">
+        <v>444</v>
+      </c>
+      <c r="AK68" t="s">
         <v>448</v>
       </c>
-      <c r="AK68">
-        <v>12609</v>
-      </c>
-      <c r="AL68" t="s">
-        <v>485</v>
-      </c>
-      <c r="AM68">
-        <v>7730</v>
-      </c>
-      <c r="AN68" t="s">
-        <v>502</v>
-      </c>
-      <c r="AO68" t="s">
-        <v>512</v>
-      </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:37">
       <c r="E69" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F69">
         <v>68</v>
@@ -8458,10 +7417,10 @@
         <v>439607</v>
       </c>
       <c r="H69" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I69" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J69">
         <v>18</v>
@@ -8470,69 +7429,57 @@
         <v>6619</v>
       </c>
       <c r="L69" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="R69" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="S69" t="s">
+        <v>300</v>
+      </c>
+      <c r="T69" t="s">
+        <v>301</v>
+      </c>
+      <c r="U69" t="s">
+        <v>302</v>
+      </c>
+      <c r="V69" t="s">
+        <v>303</v>
+      </c>
+      <c r="W69" t="s">
         <v>304</v>
       </c>
-      <c r="T69" t="s">
+      <c r="X69" t="s">
         <v>305</v>
       </c>
-      <c r="U69" t="s">
+      <c r="Y69" t="s">
         <v>306</v>
       </c>
-      <c r="V69" t="s">
-        <v>307</v>
-      </c>
-      <c r="W69" t="s">
-        <v>308</v>
-      </c>
-      <c r="X69" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>310</v>
-      </c>
       <c r="Z69" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AA69" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AC69">
         <v>0</v>
       </c>
-      <c r="AK69">
-        <v>12609</v>
-      </c>
-      <c r="AL69" t="s">
-        <v>485</v>
-      </c>
-      <c r="AM69">
-        <v>7730</v>
-      </c>
-      <c r="AN69" t="s">
-        <v>502</v>
-      </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:37">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C70" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E70" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F70">
         <v>69</v>
@@ -8541,10 +7488,10 @@
         <v>439607</v>
       </c>
       <c r="H70" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I70" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J70">
         <v>5</v>
@@ -8553,7 +7500,7 @@
         <v>6619</v>
       </c>
       <c r="L70" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M70">
         <v>29.00589212872034</v>
@@ -8565,82 +7512,70 @@
         <v>23495.5</v>
       </c>
       <c r="P70" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q70" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="R70" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S70" t="s">
+        <v>300</v>
+      </c>
+      <c r="T70" t="s">
+        <v>301</v>
+      </c>
+      <c r="U70" t="s">
+        <v>302</v>
+      </c>
+      <c r="V70" t="s">
+        <v>303</v>
+      </c>
+      <c r="W70" t="s">
         <v>304</v>
       </c>
-      <c r="T70" t="s">
+      <c r="X70" t="s">
         <v>305</v>
       </c>
-      <c r="U70" t="s">
+      <c r="Y70" t="s">
         <v>306</v>
       </c>
-      <c r="V70" t="s">
+      <c r="Z70" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB70" t="s">
         <v>307</v>
-      </c>
-      <c r="W70" t="s">
-        <v>308</v>
-      </c>
-      <c r="X70" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB70" t="s">
-        <v>311</v>
       </c>
       <c r="AC70">
         <v>1</v>
       </c>
       <c r="AD70" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AE70" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AF70" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AG70" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AH70" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AI70" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AJ70" t="s">
-        <v>441</v>
-      </c>
-      <c r="AK70">
-        <v>12609</v>
-      </c>
-      <c r="AL70" t="s">
-        <v>485</v>
-      </c>
-      <c r="AM70">
-        <v>7730</v>
-      </c>
-      <c r="AN70" t="s">
-        <v>502</v>
-      </c>
-      <c r="AO70" t="s">
-        <v>512</v>
+        <v>437</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>

--- a/database/pasta_pdf/TabelaAtual.xlsx
+++ b/database/pasta_pdf/TabelaAtual.xlsx
@@ -1390,40 +1390,40 @@
     <t>MANOEL FEITOSA LIMA</t>
   </si>
   <si>
-    <t>785810/2024-163/00</t>
-  </si>
-  <si>
-    <t>785810/2024-164/00</t>
-  </si>
-  <si>
-    <t>785810/2024-165/00</t>
-  </si>
-  <si>
-    <t>785810/2024-166/00</t>
-  </si>
-  <si>
-    <t>785810/2024-167/00</t>
-  </si>
-  <si>
-    <t>785810/2024-168/00</t>
-  </si>
-  <si>
-    <t>785810/2024-169/00</t>
-  </si>
-  <si>
-    <t>785810/2024-170/00</t>
-  </si>
-  <si>
-    <t>785810/2024-171/00</t>
-  </si>
-  <si>
-    <t>785810/2024-172/00</t>
-  </si>
-  <si>
-    <t>785810/2024-173/00</t>
-  </si>
-  <si>
-    <t>785810/2024-174/00</t>
+    <t>785810/2024-055/00</t>
+  </si>
+  <si>
+    <t>785810/2024-056/00</t>
+  </si>
+  <si>
+    <t>785810/2024-057/00</t>
+  </si>
+  <si>
+    <t>785810/2024-058/00</t>
+  </si>
+  <si>
+    <t>785810/2024-059/00</t>
+  </si>
+  <si>
+    <t>785810/2024-060/00</t>
+  </si>
+  <si>
+    <t>785810/2024-061/00</t>
+  </si>
+  <si>
+    <t>785810/2024-062/00</t>
+  </si>
+  <si>
+    <t>785810/2024-063/00</t>
+  </si>
+  <si>
+    <t>785810/2024-064/00</t>
+  </si>
+  <si>
+    <t>785810/2024-065/00</t>
+  </si>
+  <si>
+    <t>785810/2024-066/00</t>
   </si>
 </sst>
 </file>
